--- a/excel/dept_closeness_centrality.xlsx
+++ b/excel/dept_closeness_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1923629531388152</v>
+        <v>0.3187728937728938</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1899279790484504</v>
+        <v>0.3147377938517179</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1829793944491169</v>
+        <v>0.3032229965156794</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1829793944491169</v>
+        <v>0.3032229965156794</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1818704284221526</v>
+        <v>0.3013852813852814</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1807748234316576</v>
+        <v>0.2995697074010327</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1807748234316576</v>
+        <v>0.2995697074010327</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1744687249398556</v>
+        <v>0.2891196013289036</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1724633372968688</v>
+        <v>0.2857963875205254</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1714778325123152</v>
+        <v>0.2841632653061225</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.170503526645768</v>
+        <v>0.2825487012987013</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.170503526645768</v>
+        <v>0.2825487012987013</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.170503526645768</v>
+        <v>0.2825487012987013</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.170503526645768</v>
+        <v>0.2825487012987013</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.170503526645768</v>
+        <v>0.2825487012987013</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1695402298850575</v>
+        <v>0.280952380952381</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1695402298850575</v>
+        <v>0.280952380952381</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1695402298850575</v>
+        <v>0.280952380952381</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.168587756683456</v>
+        <v>0.2793739967897271</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1667145593869732</v>
+        <v>0.2762698412698413</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1554850812935501</v>
+        <v>0.257660991857883</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1515586903517938</v>
+        <v>0.2511544011544011</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1471010818120352</v>
+        <v>0.2437675070028011</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1456729159691998</v>
+        <v>0.2414008321775312</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1442722148541114</v>
+        <v>0.2390796703296703</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1428981937602627</v>
+        <v>0.2368027210884354</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1422209511358065</v>
+        <v>0.2356804333107651</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1415500975927131</v>
+        <v>0.2345687331536388</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1402271994843699</v>
+        <v>0.2323765020026702</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1389287994891443</v>
+        <v>0.2302248677248677</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1351739670705188</v>
+        <v>0.224002574002574</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.134567805783207</v>
+        <v>0.2229980781550288</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.130472263868066</v>
+        <v>0.2162111801242236</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1271551724137931</v>
+        <v>0.2107142857142857</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.126618652698967</v>
+        <v>0.2098251959011453</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.126086641553173</v>
+        <v>0.2089435774309724</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1210025027808676</v>
+        <v>0.2005184331797235</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1190818281335523</v>
+        <v>0.1973356009070295</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1190818281335523</v>
+        <v>0.1973356009070295</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1190818281335523</v>
+        <v>0.1973356009070295</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1167650610492419</v>
+        <v>0.1934963868816009</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.115863400346159</v>
+        <v>0.1920022062879206</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1145367201895235</v>
+        <v>0.189803707742639</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.114101219352301</v>
+        <v>0.189082020640956</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1103258113590264</v>
+        <v>0.1828256302521009</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1060375289387109</v>
+        <v>0.1757193336698637</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1003632798985123</v>
+        <v>0.1663162924032489</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1003632798985123</v>
+        <v>0.1663162924032489</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.09743058665472458</v>
+        <v>0.161456400742115</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.09407091125283752</v>
+        <v>0.1558889386475593</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.09377693965517241</v>
+        <v>0.1554017857142857</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.09066048546723615</v>
+        <v>0.1502373759171342</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.08477011494252873</v>
+        <v>0.1404761904761905</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.08477011494252873</v>
+        <v>0.1404761904761905</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.08477011494252873</v>
+        <v>0.1404761904761905</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.07794446932377966</v>
+        <v>0.129165120593692</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.07774254064677505</v>
+        <v>0.1288304959289415</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.07774254064677505</v>
+        <v>0.1288304959289415</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07774254064677505</v>
+        <v>0.1288304959289415</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.07734180590117311</v>
+        <v>0.1281664212076583</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.06631299734748011</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.04537205081669692</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.03591954022988506</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.03591954022988506</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1440,701 +1440,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02972651605231867</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Milan Bankovic</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Sana Stojanovic Djurdjevic</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Stefan Miskovic</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Danijela Simic</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Jelena Hadzi Puric</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Ivan Cukic</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Ognjen Kocic</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Mirjana Maljkovic</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Aleksandra Kocic</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Ana Spasic</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Biljana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Andjelka Zecevic</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Aleksandar Veljkovic</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Vladimir Kuzmanovic</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Marjana Solajic</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Anja Bukurov</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Nemanja Micovic</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Nikola Milev</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Marinela Parovic</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Milica Selakovic</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Nikola Simic</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Milana Prodanov</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Stefan Tubic</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Filip Hadzic</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Vladimir Jocovic</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Danko Miladinovic</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Dragana Milovancevic</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Jelica Cincovic</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Jovan Djukic</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Kristijan Ziza</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Marko Micovic</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Tamara Sekularac</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Uros Radenkovic</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Aleksandar Lazic</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Dragisa Miladinovic</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Marina Jovanovic Milenkovic</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Marija Bogicevic Sretenovic</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Elena Milovanovic</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Dejan Stojimirovic</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Milos Zlatkovic</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Jelena Ljubenovic</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Mina Marjanovic</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Bojan Marceta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Andela Pejanovic</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Sofija Prokic</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Tatjana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
         </is>
       </c>
     </row>
